--- a/time_plan_mechanik.xlsx
+++ b/time_plan_mechanik.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Teil</t>
   </si>
@@ -48,6 +48,15 @@
     <t xml:space="preserve">Kraft, die auf einen Basketball wirkt</t>
   </si>
   <si>
+    <t>Impuls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPP Frage: Kraft und Impuls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vorlesung </t>
+  </si>
+  <si>
     <t xml:space="preserve">Arbeit und Energie</t>
   </si>
   <si>
@@ -57,16 +66,25 @@
     <t xml:space="preserve">Arten der Energie beim Stabhochsprung</t>
   </si>
   <si>
+    <t xml:space="preserve">5, war 4</t>
+  </si>
+  <si>
     <t>Drehmoment</t>
   </si>
   <si>
     <t xml:space="preserve">Drehmoment beim Rudern</t>
   </si>
   <si>
+    <t xml:space="preserve">6, war 5</t>
+  </si>
+  <si>
     <t>Trägheitsmoment</t>
   </si>
   <si>
     <t xml:space="preserve">Schnellere Pirouette</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7, war 6</t>
   </si>
   <si>
     <t>Abschluss</t>
@@ -123,9 +141,11 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +660,7 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col bestFit="1" min="2" max="2" width="17.97265625"/>
-    <col customWidth="1" min="3" max="3" width="23.00390625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" width="43.80078125"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
@@ -718,57 +738,58 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="B7" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="2">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
-        <v>10</v>
+      <c r="D8" s="2">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="14.25">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10">
-        <v>5</v>
+      <c r="A10" t="s">
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="14.25">
@@ -776,32 +797,32 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12">
-        <v>6</v>
+      <c r="A12" t="s">
+        <v>20</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" ht="14.25">
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13">
         <v>5</v>
@@ -809,28 +830,53 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" t="s">
-        <v>22</v>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
       </c>
       <c r="D15">
-        <f>SUM(D14:D2)</f>
-        <v>84</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <f>SUM(D2:D16)</f>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>